--- a/Pubmed/Lassa/Reference_Hardlink_Jan31.xlsx
+++ b/Pubmed/Lassa/Reference_Hardlink_Jan31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AFD341-E957-CF44-86B4-506DD63D8CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5EA4DD-027A-0041-8D6F-315A978E790D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11560" yWindow="5660" windowWidth="26840" windowHeight="15940" xr2:uid="{1BD52EBA-16F4-6643-8514-9628791BFDFD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>PubID</t>
   </si>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,7 +497,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>19317988</v>
+      </c>
+      <c r="B5">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
